--- a/학습자료/단답형/한국사 파이널.xlsx
+++ b/학습자료/단답형/한국사 파이널.xlsx
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2434,7 +2434,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -2694,7 +2694,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3154,7 +3154,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3414,7 +3414,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -8781,7 +8781,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -8881,7 +8881,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -9241,7 +9241,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -9341,7 +9341,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="446">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -10441,7 +10441,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
@@ -10501,7 +10501,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
@@ -10901,7 +10901,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -11461,7 +11461,7 @@
         </is>
       </c>
       <c r="D551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="D564" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="D574" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575">
@@ -12141,7 +12141,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -12241,7 +12241,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/한국사 파이널.xlsx
+++ b/학습자료/단답형/한국사 파이널.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8D47C-C610-412F-94F0-E993A035A9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96FC8F-F2AD-487C-B4BE-87C03F134600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1061">
   <si>
     <t>질문</t>
   </si>
@@ -3255,6 +3255,226 @@
   </si>
   <si>
     <t>문종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연천 전곡리 유적</t>
+  </si>
+  <si>
+    <t>아슐리안형 주먹도끼</t>
+  </si>
+  <si>
+    <t>제주 고산리 유적</t>
+  </si>
+  <si>
+    <t>덧무늬 토기</t>
+  </si>
+  <si>
+    <t>부산 동삼동 유적</t>
+  </si>
+  <si>
+    <t>조개껍데기 가면</t>
+  </si>
+  <si>
+    <t>양양 오산리 유적</t>
+  </si>
+  <si>
+    <t>토제 인면(人面)상</t>
+  </si>
+  <si>
+    <t>부여 송국리 유적</t>
+  </si>
+  <si>
+    <t>여주 흔암리 유적</t>
+  </si>
+  <si>
+    <t>붉은 간 토기</t>
+  </si>
+  <si>
+    <t>공주 석장리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남한 최초 발견 구석기 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선사시대 최초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅기 굴포리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북한 최초 발견 구석기 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕천 승리산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한반도 최초의 인류 화석 발굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단양 상시리 바위그늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남한 최초 인골화석 발견</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선사시대 유적</t>
+  </si>
+  <si>
+    <t>비파형 동검, 원형 집터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅진 소야도 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅기 굴포리 서포항 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 장신구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황해 봉산 지탑리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄화된 좁쌀, 갈돌과 갈판| 신석기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 제천 점말 동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람의 얼굴을 새긴 털코뿔이 앞발뼈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 청주 산성동</t>
+  </si>
+  <si>
+    <t>가락바퀴</t>
+  </si>
+  <si>
+    <t>경남 통영 연대도</t>
+  </si>
+  <si>
+    <t>치레걸이</t>
+  </si>
+  <si>
+    <t>평양 남경 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄화된 좁쌀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청원 두루봉 동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흥수아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 양구 상무룡리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑요석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연천 전곡리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구석기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선사시대 시대구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 공주 석장리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상원 검은모루 동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 동삼동 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신석기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울주 신암리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양양 오산리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농포동 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울 암사동 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉산 지탑리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온천 궁산리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양양 지경리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부여 송국리 유적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕천 승리산 동굴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 간토기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>눌러찍기무늬 토기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고령 장기리 유적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3650,11 +3870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D746"/>
+  <dimension ref="A1:D789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A735" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B738" sqref="B738:C746"/>
+      <pane ySplit="1" topLeftCell="A736" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A747" sqref="A747:C789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -13893,6 +14113,479 @@
         <v>916</v>
       </c>
     </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A747" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A748" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A749" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A750" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A751" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A752" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A753" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A754" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A755" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A756" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A757" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A758" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A759" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A760" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A761" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A762" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A763" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A764" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A765" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A766" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A767" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A768" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A769" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A770" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A771" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A772" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A773" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A774" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A775" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A776" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A777" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A778" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A779" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A780" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A781" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A782" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C782" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A783" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C783" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A784" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C784" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A785" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C785" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A786" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A787" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A788" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C788" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A789" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C789" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/한국사 파이널.xlsx
+++ b/학습자료/단답형/한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D789"/>
+  <dimension ref="A1:D1056"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1758,7 +1758,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>은본위 화폐 제도 실시를 비롯하여 과거제도 폐지 · 재정의 일원화 · 조세의 금납화 · 도량형 통일 등이 추진되었다</t>
+          <t>은본위 화폐 제도 실시를 비롯하여 과거제도 폐지·재정의 일원화·조세의 금납화·도량형 통일 등이 추진되었다</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102">
@@ -2514,7 +2514,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106">
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>을미개혁| 1895년 월 ~ 1896년 2월</t>
+          <t>을미개혁| 1895년 ~ 1896년</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2914,7 +2914,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146">
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3554,7 +3554,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165">
@@ -3820,7 +3820,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>독립협회는 자유 민권 · 자주 국권 · 자강 개혁과 함께 국민 참정권 운동을 전개하였다</t>
+          <t>독립협회는 자유 민권·자주 국권·자강 개혁과 함께 국민 참정권 운동을 전개하였다</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
@@ -4700,232 +4700,232 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>외교문서 작성</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
           <t>강수</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>외교문서 작성</t>
-        </is>
-      </c>
       <c r="C214" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
+          <t>이두 집대성</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
           <t>설총</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>이두 집대성</t>
-        </is>
-      </c>
       <c r="C215" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
+          <t>역사 지리지</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
           <t>김대문</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>역사 지리지</t>
-        </is>
-      </c>
       <c r="C216" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
+          <t>빈공과</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>빈공과</t>
-        </is>
-      </c>
       <c r="C217" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
+          <t>청방인문표</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
           <t>강수</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>청방인문표</t>
-        </is>
-      </c>
       <c r="C218" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
+          <t>답설인귀서</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
           <t>강수</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>답설인귀서</t>
-        </is>
-      </c>
       <c r="C219" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
+          <t>세외교(유교윤리)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
           <t>강수</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>세외교(유교윤리)</t>
-        </is>
-      </c>
       <c r="C220" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
+          <t>조강지처</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
           <t>강수</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>조강지처</t>
-        </is>
-      </c>
       <c r="C221" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>화왕계</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
           <t>설총</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>화왕계</t>
-        </is>
-      </c>
       <c r="C222" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>고승전</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
           <t>김대문</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>고승전</t>
-        </is>
-      </c>
       <c r="C223" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
+          <t>악본</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
           <t>김대문</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>악본</t>
-        </is>
-      </c>
       <c r="C224" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
+          <t>한산기</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
           <t>김대문</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>한산기</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4940,181 +4940,181 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
+          <t>계림잡전</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>김대문</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>계림잡전</t>
-        </is>
-      </c>
       <c r="C226" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
+          <t>화랑세기</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
           <t>김대문</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>화랑세기</t>
-        </is>
-      </c>
       <c r="C227" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
+          <t>토황소격문</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>토황소격문</t>
-        </is>
-      </c>
       <c r="C228" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
+          <t>계월필경</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>계월필경</t>
-        </is>
-      </c>
       <c r="C229" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
+          <t>제왕연대력</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>제왕연대력</t>
-        </is>
-      </c>
       <c r="C230" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
+          <t>사륙집</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>사륙집</t>
-        </is>
-      </c>
       <c r="C231" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
+          <t>난랑비서문</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>난랑비서문</t>
-        </is>
-      </c>
       <c r="C232" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
+          <t>중산복궤집</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>중산복궤집</t>
-        </is>
-      </c>
       <c r="C233" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
+          <t>해인사 묘길상 탑</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
           <t>최치원</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>해인사 묘길상 탑</t>
-        </is>
-      </c>
       <c r="C234" t="inlineStr">
         <is>
           <t>신라 유학자</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239">
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -5354,7 +5354,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -5454,7 +5454,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5694,7 +5694,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
@@ -5714,7 +5714,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266">
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
@@ -5774,7 +5774,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5794,7 +5794,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -5814,7 +5814,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5840,7 +5840,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>1910년 국권 피탈 이후 일본의 작위를 받고 동아일보사 초대사장, 중추원의장 · 부의장, 일본 귀족원 의원 등 역임</t>
+          <t>1910년 국권 피탈 이후 일본의 작위를 받고 동아일보사 초대사장, 중추원의장·부의장, 일본 귀족원 의원 등 역임</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -5860,7 +5860,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>윤치호는 서재필 · 이상재 등과 독립협회를 조직하였다</t>
+          <t>윤치호는 서재필·이상재 등과 독립협회를 조직하였다</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -5874,7 +5874,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273">
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275">
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -6074,7 +6074,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -6154,7 +6154,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -6294,7 +6294,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
@@ -6334,7 +6334,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -6374,7 +6374,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6394,7 +6394,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -6414,7 +6414,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -6474,7 +6474,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="303">
@@ -6494,7 +6494,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -6554,7 +6554,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
@@ -6614,7 +6614,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -6654,7 +6654,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -6694,7 +6694,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -6714,7 +6714,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -6740,7 +6740,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6780,7 +6780,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
@@ -6820,7 +6820,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -6860,7 +6860,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
@@ -6880,7 +6880,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -6900,7 +6900,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6940,7 +6940,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -6960,7 +6960,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -7000,7 +7000,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="332">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7100,7 +7100,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335">
@@ -7140,7 +7140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336">
@@ -7160,7 +7160,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -7180,7 +7180,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -7200,7 +7200,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7240,7 +7240,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -7260,7 +7260,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
@@ -7340,7 +7340,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
@@ -7360,7 +7360,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7400,7 +7400,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -7420,7 +7420,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -7440,7 +7440,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -7460,7 +7460,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -7480,7 +7480,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -7500,7 +7500,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -7540,7 +7540,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358">
@@ -7620,7 +7620,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -7640,7 +7640,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7680,7 +7680,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="363">
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="364">
@@ -7720,7 +7720,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -7880,7 +7880,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373">
@@ -7900,7 +7900,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -7920,7 +7920,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -7940,13 +7940,13 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>안재홍은 8 · 15 광복과 동시에 조선건국준비위원회의 부위원장이 되었다</t>
+          <t>안재홍은 8·15 광복과 동시에 조선건국준비위원회의 부위원장이 되었다</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -7960,13 +7960,13 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>1945년 좌 · 우익을 망라하여 조직된 독립 촉성 중앙 협의회는 회장으로 이승만을 추대하였다</t>
+          <t>1945년 좌·우익을 망라하여 조직된 독립 촉성 중앙 협의회는 회장으로 이승만을 추대하였다</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -8000,7 +8000,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -8040,7 +8040,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8060,7 +8060,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8080,7 +8080,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386">
@@ -8160,7 +8160,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -8180,7 +8180,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -8220,7 +8220,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -8240,7 +8240,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="391">
@@ -8261,7 +8261,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -8341,7 +8341,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -8361,7 +8361,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -8401,7 +8401,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
@@ -8441,7 +8441,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8461,7 +8461,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -8481,7 +8481,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -8501,7 +8501,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8641,7 +8641,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -8701,7 +8701,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8801,7 +8801,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -8901,7 +8901,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -9007,7 +9007,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>1904년 제1차 한 · 일 협약이 체결되며 외교 고문으로 스티븐스가 임명되었다</t>
+          <t>1904년 제1차 한·일 협약이 체결되며 외교 고문으로 스티븐스가 임명되었다</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -9021,13 +9021,13 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>1904년 제1차 한 · 일 협약이 체결되며 재정 고문으로 메가타가 임명되었다</t>
+          <t>1904년 제1차 한·일 협약이 체결되며 재정 고문으로 메가타가 임명되었다</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -9201,7 +9201,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
@@ -9241,7 +9241,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9341,7 +9341,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446">
@@ -9361,7 +9361,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -9401,7 +9401,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450">
@@ -9441,7 +9441,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
@@ -9461,7 +9461,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -9481,7 +9481,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9501,7 +9501,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -9561,7 +9561,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
@@ -9581,7 +9581,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -9601,7 +9601,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="460">
@@ -9641,7 +9641,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -9661,7 +9661,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -9681,7 +9681,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -9761,7 +9761,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -9781,7 +9781,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -9801,7 +9801,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470">
@@ -9841,7 +9841,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -9861,7 +9861,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -9881,7 +9881,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -9901,7 +9901,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -9941,7 +9941,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -9981,7 +9981,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -10041,7 +10041,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -10061,7 +10061,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -10081,7 +10081,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -10161,7 +10161,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -10181,7 +10181,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -10201,7 +10201,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10241,7 +10241,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -10281,7 +10281,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -10361,7 +10361,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -10401,7 +10401,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -10481,7 +10481,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
@@ -10641,7 +10641,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
@@ -10661,7 +10661,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512">
@@ -10681,7 +10681,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
@@ -10701,7 +10701,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -10761,7 +10761,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -10781,7 +10781,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -10881,7 +10881,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -10901,7 +10901,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="524">
@@ -10961,7 +10961,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -10981,7 +10981,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -11041,7 +11041,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -11061,7 +11061,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
@@ -11081,7 +11081,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -11161,7 +11161,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -11181,7 +11181,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -11241,7 +11241,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -11261,7 +11261,7 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -11281,7 +11281,7 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="543">
@@ -11301,7 +11301,7 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -11341,7 +11341,7 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -11361,7 +11361,7 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -11381,7 +11381,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
@@ -11401,7 +11401,7 @@
         </is>
       </c>
       <c r="D548" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -11441,7 +11441,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="D555" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="556">
@@ -11581,7 +11581,7 @@
         </is>
       </c>
       <c r="D557" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="558">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="559">
@@ -11661,7 +11661,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
@@ -11961,7 +11961,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="D594" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
@@ -12381,7 +12381,7 @@
         </is>
       </c>
       <c r="D597" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -12481,7 +12481,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605">
@@ -12661,7 +12661,7 @@
         </is>
       </c>
       <c r="D611" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="612">
@@ -12701,7 +12701,7 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="614">
@@ -12807,7 +12807,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>이익은 천지, 만물, 인사, 경사, 시문 등 5개 부문으로 나누어 우리나라 및 중국의 문화를 백과사전식으로 소개 · 비판한 책을 지었다. 이익은 붕당이 선비들의 먹이다툼에서 생겼다고 보고 선비들도 농사를 짓고, 과거시험의 주기를 3년에서 5년으로 늘려 합격자를 줄일 것을 주장했다</t>
+          <t>이익은 천지, 만물, 인사, 경사, 시문 등 5개 부문으로 나누어 우리나라 및 중국의 문화를 백과사전식으로 소개·비판한 책을 지었다. 이익은 붕당이 선비들의 먹이다툼에서 생겼다고 보고 선비들도 농사를 짓고, 과거시험의 주기를 3년에서 5년으로 늘려 합격자를 줄일 것을 주장했다</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
@@ -12981,7 +12981,7 @@
         </is>
       </c>
       <c r="D627" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="D645" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -13382,7 +13382,7 @@
         </is>
       </c>
       <c r="D647" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="648">
@@ -13462,7 +13462,7 @@
         </is>
       </c>
       <c r="D651" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -13502,7 +13502,7 @@
         </is>
       </c>
       <c r="D653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -13522,7 +13522,7 @@
         </is>
       </c>
       <c r="D654" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="655">
@@ -13542,7 +13542,7 @@
         </is>
       </c>
       <c r="D655" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="D658" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="D667" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -13822,13 +13822,13 @@
         </is>
       </c>
       <c r="D669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>『산림경제』는 조선 숙종 때 홍만선이 편찬하였으며, 수명 연장 등의 일상 생활과 농업 · 입업 · 축산업 · 식품가공 등 농촌 생활과 관련된 광범위한 사항을 기술한 책이다</t>
+          <t>『산림경제』는 조선 숙종 때 홍만선이 편찬하였으며, 수명 연장 등의 일상 생활과 농업·입업·축산업·식품가공 등 농촌 생활과 관련된 광범위한 사항을 기술한 책이다</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
@@ -14042,7 +14042,7 @@
         </is>
       </c>
       <c r="D680" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681">
@@ -14062,7 +14062,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -14102,7 +14102,7 @@
         </is>
       </c>
       <c r="D683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -14162,7 +14162,7 @@
         </is>
       </c>
       <c r="D686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="D688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="690">
@@ -14242,13 +14242,13 @@
         </is>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>공복 제정(자 · 단 · 비 · 녹의 4색 공복제) : 지배층의 위계질서 확립</t>
+          <t>공복 제정(자·단·비·녹의 4색 공복제) : 지배층의 위계질서 확립</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="692">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -14368,7 +14368,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>국사 · 왕사 제도 완성(태조 때 시작)</t>
+          <t>국사·왕사 제도 완성(태조 때 시작)</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
@@ -14402,7 +14402,7 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -14422,7 +14422,7 @@
         </is>
       </c>
       <c r="D699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -14482,7 +14482,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -14508,7 +14508,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>식목도감 · 도병마사(독자적 관제) 설치</t>
+          <t>식목도감·도병마사(독자적 관제) 설치</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
@@ -14528,7 +14528,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>중추원 · 삼사(송 관제 모방) 설치</t>
+          <t>중추원·삼사(송 관제 모방) 설치</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="D705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="D706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -14588,7 +14588,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>지방 향학에 경학박사 · 의학박사 파견</t>
+          <t>지방 향학에 경학박사·의학박사 파견</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -14602,7 +14602,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -14622,7 +14622,7 @@
         </is>
       </c>
       <c r="D709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -14642,7 +14642,7 @@
         </is>
       </c>
       <c r="D710" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="711">
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712">
@@ -14688,7 +14688,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>문신월과법 : 관료들의 실력 향상 목적, 중앙 문신에게 매월 시 3수 · 부 1편, 지방 문신에게 매년 시 30수 · 부 1편을 제출하도록 함</t>
+          <t>문신월과법 : 관료들의 실력 향상 목적, 중앙 문신에게 매월 시 3수·부 1편, 지방 문신에게 매년 시 30수·부 1편을 제출하도록 함</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -14708,7 +14708,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>상평창 : 물가 조절 기관, 개경 · 서경 · 12목에 설치</t>
+          <t>상평창 : 물가 조절 기관, 개경·서경·12목에 설치</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -14822,7 +14822,7 @@
         </is>
       </c>
       <c r="D719" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="720">
@@ -14873,7 +14873,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>주현공부법 | 주현 단위로 조세 · 공물의 액수를 정하여 징수</t>
+          <t>주현공부법 | 주현 단위로 조세·공물의 액수를 정하여 징수</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727">
@@ -14982,7 +14982,7 @@
         </is>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="728">
@@ -15002,7 +15002,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="729">
@@ -15022,7 +15022,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -15042,7 +15042,7 @@
         </is>
       </c>
       <c r="D730" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="731">
@@ -15102,7 +15102,7 @@
         </is>
       </c>
       <c r="D733" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="734">
@@ -15153,7 +15153,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>개정 전시과 | 전 · 현직 관리 대상, 인품을 배제하고 관품만을 기준으로 토지 분급</t>
+          <t>개정 전시과 | 전·현직 관리 대상, 인품을 배제하고 관품만을 기준으로 토지 분급</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="D738" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="739">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="D739" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="740">
@@ -15242,7 +15242,7 @@
         </is>
       </c>
       <c r="D740" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="D741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="D742" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -15308,7 +15308,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>동 · 서 대비원(개경) : 국립 의료 기관</t>
+          <t>동·서 대비원(개경) : 국립 의료 기관</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -15402,7 +15402,7 @@
         </is>
       </c>
       <c r="D748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751">
@@ -15602,7 +15602,7 @@
         </is>
       </c>
       <c r="D758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -15642,7 +15642,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -15702,7 +15702,7 @@
         </is>
       </c>
       <c r="D763" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -15762,7 +15762,7 @@
         </is>
       </c>
       <c r="D766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -15802,7 +15802,7 @@
         </is>
       </c>
       <c r="D768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -15842,7 +15842,7 @@
         </is>
       </c>
       <c r="D770" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771">
@@ -15862,7 +15862,7 @@
         </is>
       </c>
       <c r="D771" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="772">
@@ -15902,7 +15902,7 @@
         </is>
       </c>
       <c r="D773" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="774">
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="D776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -16082,7 +16082,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783">
@@ -16122,7 +16122,7 @@
         </is>
       </c>
       <c r="D784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="D786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -16222,6 +16222,5354 @@
         </is>
       </c>
       <c r="D789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>도첩제 강화, 승려 출가 제한, 사원 건립 억제</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>태조</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>242개 사원 남기고 나머지는 폐지</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>태종</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>선종과 교종 각각 18사씩 36새 절만 인정</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>원각사 10층 석탑</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>세조</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>간경도감 설치하여 불교 경전을 한글로 간행</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>세조</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>도첩제 폐지, 불교 억제하여 산간 불교로 바뀜</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>성종</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>보우 중용, 승과 부활</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>명종</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>조선 불교 정책</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>통도사</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>계율종</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>금산사</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>원효 분황사</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>법성종</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>의상 부석사</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>화엄종</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>보덕 경복사</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>열반종</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>자장 통도사</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>계율종</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>진표 금산사</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>법상종</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>불교 : 5교</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>전진의 순도가 불교 전래</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>고구려(소수림왕)</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>불교 : 전파</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>동진의 마라난타가 불교 전래</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>백제(침류왕)</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>불교 : 전파</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>고구려 묵호자가 불교 전래</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>신라(눌지 마립간)</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>불교 : 전파</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>이차돈의 순교로 불교 공인</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>신라(법흥왕)</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>불교 : 전파</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>삼론종 번창</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>고구려</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>개인의 소승적 해탈 중시</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>백제</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>계율종</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>백제, 신라</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>업설과 미륵불 신앙 발달</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>왕즉불 사상</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>국통, 주통, 군통</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>신라</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>불교 : 국가별 성격</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>(고구려) 연개소문의 불교 탄압을 피해 백제로 내려가 열반종 개창</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>보덕</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>(고구려) 연개소문의 도교 장려, 불교 탄압에 반발, &lt;일본세기&gt;</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>도현</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>(고구려) 신라에 가서 최초의 국통이 되었으며, 불교 교단을 조직함</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>혜관</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>(고구려) 영양왕 21년(610) 백제를 거쳐 일본에 건너가 종이, 먹, 맷돌 제조 방법을 전해주었으며, 호류사에 머물면서 금당 벽화를 그림</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>담징</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>(고구려) 일본 쇼토쿠 태자의 스승</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>혜자</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>(백제) 인도에서 불법 연구, 백제로 율종 관계 서적 들여와 번역</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>겸익</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>(백제) 삼론종 연구</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>혜현</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>(백제) 일본에 계율종 전파</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>혜총</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>(백제) 일본에 천문, 역법 전파</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>관륵</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>(백제) 성왕(552) 때 일본에 불상, 불경을 전파(일본에 불교 전파)</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>노리사치계</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>(백제) 고구려에서 망명, 열반종 개창</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>보덕</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>(신라) 진/수 유학, 성실종 도입, 화랑도의 세속 5계 제시</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>원광</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>(신라) 당 유학, 통도사에서 계율종 개창, 선덕 여왕에게 황룡사 9층 목탑 건의, 대국통</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>자장</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>(신라) 고구려에서 망명한 후 교단(국통, 주통, 군통)을 조직하고, 초대 국통에 임명</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>혜량</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>일심사상</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>아미타신앙</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>관음신앙</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>화엄사상</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>무애가</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>법성종 창설 ; 분황사(경주)</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>6두품 출신, 이두를 정리, 신문왕에게 화왕계 바침.</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>설총</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>화엄종 창설 ; 부석사 (영주)</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>지엄의 제자</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>하나가 곧 만물이고,만물이 곧 하나다(일즉다 다즉일)</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>왕오천축국전</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>혜초</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>화엄일승법계도</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>무열왕, 문무왕 때 주로 활약</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>문무왕, 신문왕 때 주로 활약</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>6두품</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>진골</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>속명: 설서당, 별명: 해동보살</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>요석궁 공주와 결혼</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>평상복 입고 소송거사라 자처</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>화쟁사상</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>왕오천축국전 : 인도와 중앙아시아 여러 나라의 풍물 생생하게 기록</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>혜초</t>
+        </is>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>원융사상 : 모든 만물은 상호의존 관계, 서로 조화를 이루고 있다</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>대승기신론소</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>십문화쟁론</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>금강삼매경론</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>원효</t>
+        </is>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>백화도량발원문</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>당으로 유학가 현장의 제자가 됨</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>유식 불교를 배워 서명학파 성립</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>해심밀경소 저술 -&gt; 법상종 성립에 기여</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>원측</t>
+        </is>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>신라 경덕왕의 아들로 중국에서 화엄경을 전파</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>김교각</t>
+        </is>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>지장보살의 화신으로 평가</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>김교각</t>
+        </is>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>교관겸수</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>963년(광종 14)에 광종의 발원으로 송악산 아래에 창건된 귀법사의 초대 주지가 되었다</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>고려 무신 집권기 때의 승려 지눌은 선과 교학이 근본에 있어 둘이 아니라는 사상 체계인 정혜쌍수를 사상적 바탕으로 철저한 수행을 선도하였다</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>제관에 대한 설명이다. 『천태사교의』는 고려 초기의 승려 제관이 천태종의 중심 사상을 요약한 책이다</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>제관</t>
+        </is>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>무자년 여름 5월 유생 여러 명이 개경에서 내려와 뵈니 대사가 제자로 받아들여 머리를 깎고 『묘법연화경』을 가르쳐 통달하게 하였다. 임진년 4월 8일 대사가 처음 보현도량을 결성하고 법화 삼매를 수행하여, 극락정토에 왕생하기를 구하였는데, 모두 천태 삼매의(天台三昧儀)를 그대로 따랐다. 오랫동안 법화참(法華懺)을 수행하고 전후에 권하여 발심(發心)시켜 이 경을 외우도록 하여 외운 자가 1천여 명이나 되었다</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>의천은 교단의 통합과 정리를 불교계의 폐단을 바로잡기 위한 우선 과제로 보았다. 이를 바탕으로 흥왕사에서 화엄종을 중심으로 교종의 통합을 시도하였다. 또한 교종을 중심으로 선종을 통합하기 위해 국청사를 창건하여 천태종을 창시하였다</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>교단을 통합, 정리하는 것이 불교계의 폐단을 바로잡는 우선 과제라고 생각하였다</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>지눌의 수선사 결사 운동은 선종 중심의 불교 개혁 운동이었으며, 승려 본연의 자세로 돌아가 예불 독경과 선수행 및 참선, 노동에 고루 힘쓰자고 주장하였다. 이를 위한 사상적 배경으로 선과 교학이 근본에 있어 둘이 아니라는 사상 체계인 정혜쌍수와 내가 곧 부처라는 깨달음을 위한 노력과 함께, 꾸준한 수행으로 깨달음의 확인을 아울러 강조한 돈오점수를 주장하였다</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>깨달음을 얻기 위해 참선을 하되 교리 공부를 함께할 것을 제안하였다</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>지눌은 내가 곧 부처라는 깨달음을 위한 노력과 함께 꾸준한 수행으로 깨달음의 확인을 강조한 돈오점수를 강조하였다. 또한 선과 교학이 근본에 있어 둘이 아니라는 사상 체계인 정혜쌍수를 사상적 바탕으로 철저한 수행을 선도하였다</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>단박에 깨달음을 얻고 깨달은 후에도 꾸준히 수행해야 한다고 주장하였다</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>하루는 같이 공부하는 사람 10여 인과 약속하였다. 마땅히 명예와 이익을 버리고 산림에 은둔하여 같은 모임을 맺자. 항상 선을 익히고 지혜를 고르는 데 힘쓰고, 예불하고 경전을 읽으며 힘들여 일하는 것에 이르기까지 각자 맡은 바 임무에 따라 경영한다 - 『권수정혜결사문』 -</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>『해동고승전』은 무신 정권기인 고종 대에 교종 승려인 각훈이 왕명에 따라 편찬하였다</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>각훈</t>
+        </is>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>영통사에서 해동고승전을 편찬했다</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>각훈</t>
+        </is>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>의천은 교종을 중심으로 선종을 통합하기 위해 국청사를 창건하고 해동 천태종을 창시하였다</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>국청사에서 해동천태종을 창시했다</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>거조사에서 정혜결사를 결성했다</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>지눌은 거조사에서 신앙 공동체를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>요세는 만덕산 백련사에 자리를 잡고, 사회 혼란과 불교 타락에 대한 자각과 반성을 촉구하는 백련 결사를 결성하는 등 천태종 중흥에 힘썼다</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>만덕사에서 백련사를 제창했다</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>내가 일찍이 가만히 생각해 보니, 경론이 갖추어졌다 하더라도 장소(章疏)가 폐해지면 널리 펼 길이 없게 된다고 말할 수 있다. 그러므로 지승법사의 호법하는 뜻을 본받아 교장을 널리 찾아냄을 나의 책임으로 삼아 쉬지 않고 부지런히 살아온 지 20년이 되어 지금에 이르렀다. 새것이든 옛것이든 여러 종파의 의소를 얻게되면, 감히 사사로이 비장(秘藏)하지 않고 간행하였으며, 책을 낸후에 새로 발견된 것이 있으면 그 뒤에 계속해서 수록하고자 했다</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>의천| 『교장』 편찬에 대한 내용</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>지눌의 제자인 혜심(1178~1234)은 유·불 일치설을 주장하며 심성의 도야를 강조하여 성리학의 사상적 토대를 마련하였다</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>혜심</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>유·불 일치설을 주장하며 심성의 도야를 강조하였다</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>혜심</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>지눌은 돈오점수와 정혜쌍수를 주장하며 선·교 일치 사상을 완성하였다. 돈오점수는 단번에 깨닫고 꾸준히 실천하자는 주장이며, 이를 위해 선과 교학을 나란히 수행하며 선을 중심으로 교학을 포용하자는 이론인 정혜쌍수를 실천 방법으로 내세웠다</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>돈오점수의 실천 방법으로 정혜쌍수를 내세웠다</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>의천(1055~1101)은 왕실과 가까운 흥왕사를 근거지로 삼아 화엄종을 중심으로 교종을 통합하려 하였다</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>화엄종을 중심으로 교종을 정리하였다</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>요세(1163~1245)는 강진 만덕사(백련사)에서 자신의 행동을 진정으로 참회하는 법화 신앙에 중점을 둔 백련결사를 제창하였다</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>요세는 강진 만덕사(백련사)에서 보현도량을 결성하고 전통적인 법화삼매 참회를 닦았다</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>강진에서 보현도량을 개설하였다</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>지눌은 명리에 집착하는 당시 불교계의 타락상을 비판하면서 승려 본연의 자세로 돌아가 독경과 선 수행, 노동에 고루 힘쓰자는 수선사 결사를 제창하였다</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>의천은 선종을 통합하기 위하여 국청사를 창건하여 천태종을 창시하였다</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>지승법사의 호법(護法)하는 뜻을 본받아 교장(敎藏)을 널리 찾아내는 것을 나의 책임으로 삼았다. …… 여러 종파의 의소(義疏)를 얻게 되면, 감히 사사로이 비장(秘藏)하지 않고 간행했으며, 책을 낸 후에 새로 발견된 것이 있으면 그 뒤에 계속해서 수록하고자 하였다. 이렇게 편집된 권질이 삼장(三藏)의 정문(正文)과 더불어 무궁하게 전해져 내려감이 나의 소원이다</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>의천은 송·요·일본의 불교 서적(주석서)들을 모아서 흥왕사에 교장도감을 설치하고 교장(속장경)을 간행하였으며, 이 과정에서 주석서들 목록인 『신편제종교장총록』을 남겼다</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>송, 요, 일본의 불교서적을 모아『신편제종교장총록』을 간행하였다</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>풍수지리사상을 정립한 승려는 ‘도선’이다</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>도선</t>
+        </is>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>풍수지리사상을 정립하여 궁궐과 사찰 건립의 입지 선정에 큰 영향을 미쳤다</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>도선</t>
+        </is>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>남중국에 천태학을 전파한 승려는 광종 때 활동한 의통과 제관이다. 의통은 중국 천태종 16대 교조가 되었고, 제관은 중국에서 『천태사교의』를 저술하였다</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>의통</t>
+        </is>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>숙종의 후원을 받아 국청사를 중심으로 해동천태종을 창건하여 법상종과 선종의 여러 종파의 대립을 극복하려고 하였다</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>보우가 원으로부터 임제종을 도입한 시기는 충목왕 때인 1346년이다</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>선종을 중심으로 교종을 통합하려 하였던 승려인 보조국사 지눌은 최충헌 집권기에 활동하였다</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>해동 천태종을 창시한 대각국사 의천은 11세기 말 고려 숙종 때 활동하였다</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>제관과 의통이 남중국에 천태학을 전파한 시기는 고려 초기 광종 때이다</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>제관</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>보우는 공민왕 때 9산선문의 통합을 주장하였으나, 실패하였다</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>임인년 정월에 개경 보제사에서 열린 담선법회가 파한 연후에 ㉡ 은(는) 동문 10여 인과 함께 “명예와 이익을 버리고 산림에 은둔하여 같은 모임을 맺자. 항상 선정을 익히고 지혜를 고르는 데 힘쓰고, 예불하고 경전을 읽으며 힘들여 일하는 것에 이르기까지 각자 맡은 바 임무에 따라 경영한다.”라고 결의하였다</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>문무왕이 도성을 새롭게 짓고자 하니, ㉠ 이(가) 말하기를 “비록 궁벽한 시골[草野] 띳집[茅屋]에 있다고 해도 바른 도를 행하면 복된 일이 오래 갈 것이고, 만일 그렇지 못하면 사람을 수고롭게 하여 성을 쌓을지라도 아무 이익이 없을 것입니다.” 하니, 왕이 곧 그 성을 쌓는 것을 그만두었다</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>의상</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>교장도감을 설치하고 속장경을 간행하였다</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>교종과 선종의 통합에 관심을 가져 광종 사후에 침체되어 있던 천태학을 부흥시켜 천태종을 창립하였다</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>나는 도(道)를 구하는 데 뜻을 두어 덕이 높은 스승을 두루 찾아다녔다. 그러다가 진수대법사 문하에서 교관(敎觀)을 대강 배웠다. 법사께서는 강의하다가 쉬는 시간에도 늘 “관(觀)도 배우지 않을 수 없고, 경(經)도 배우지 않을 수 없다.”라고 제자들에게 훈시하였다. 내가 교관에 마음을 다 쏟는 까닭은 이 말에 깊이 감복하였기 때문이다</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>의천| 「대각국사문집」의 일부</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>한 마음(一心)을 깨닫지 못하고 한없는 번뇌를 일으키는 것이 중생인데, 부처는 이 한 마음을 깨달았다. 깨닫고 아니 깨달음은 오직 한 마음에 달려 있는 것이니 이 마음을 떠나서 따로 부처를 찾을 곳은 없다</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>지눌| 「정혜결사문」</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>먼저 깨치고 나서 후에 수행한다는 뜻은 못의 얼음이 전부 물인줄을 알지만 그것이 태양의 열을 받아 녹게 되는 것처럼 범부가 곧 부처임을 깨달았으나 불법의 힘으로 부처의 길을 닦게 되는 것과 같다는 것이다</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>지눌| 「수심결」</t>
+        </is>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>속장경</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>교장도감 간행</t>
+        </is>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>교장도감 간행 vs 대장도감 간행</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>팔만대장경</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>대장도감 간행</t>
+        </is>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>교장도감 간행 vs 대장도감 간행</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>보우는 원나라에서 임제종을 들여와 전파시켜 조선 선종의 주류로 발전시켰다</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>태고 보우는 원으로부터 임제종을 들여와 전파시킴으로써 불교계의 새로운 주류로 떠올랐다</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>보우</t>
+        </is>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>중국 오월 지역에서 유행하던 선종(법안종)을 수입하였다</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>혜거</t>
+        </is>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>균여는 화엄사종을 중심으로 북악의 법통을 계승한 뒤 남악까지 통합하였다</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>균여는 북악의 법손(法孫)으로서 북악을 중심으로 남악의 사상을 융합하였다</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>(나)는 “정(定)은 본체이고 혜(慧)는 작용이다. 작용은 본체를 바탕으로 존재하므로 혜가 정을 떠나지 않고, 본체가 작용을 가져오게 하므로 정은 혜를 떠나지 않는다.”라고 주장하였다</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>(가)는 “교(敎)를 배우는 이는 대개 안의 마음을 버리고 외면에서 구하고, 선(禪)을 익히는 이는 인연을 잊고 안의 마음을 밝히기를 좋아하니, 모두 한쪽에 치우친 것으로 두 극단에 모두 막힌 것이다.”라고 주장하였다</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>균여는 불교 경전을 향가로 풀어 쓴 「보현십원가」 11수를 저술하여 국문학 사상에 큰 업적을 남겼다</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>균여는 법상종을 흡수하여 성상융회 사상을 주창하였다</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>균여는 성속무애 사상을 주장하며 교종을 통합하려 하였다</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>균여| 성속무애 = 성상융회</t>
+        </is>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>그는 『묘종초』를 설법하기 좋아하여 언변과 지혜가 막힘이 없었고, 대중에게 참회를 닦기를 권하였다. …(중략)… 대중의 청을 받아 교화시키고 인연을 맺은 지 30년이며, 결사에 들어온 자들이 3백여 명이 되었다</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>요세| 참회를 강조한다</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>교(敎)를 배우는 이는 대개 안의 마음을 버리고 외면에서 구하고, 선(禪)을 익히는 이는 인연을 잊고 안의 마음을 밝히기를 좋아하니, 모두 한쪽에 치우친 것으로 두 극단에 모두 막힌 것이다</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>의천| 교관겸수</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>지금의 불교계를 보면, 아침저녁으로 하는 일들이 비록 부처의 법에 의지하였다고 하나, 자신을 내세우고 이익을 구하는 데 열중하여 세속의 일에 골몰한다. 도덕을 닦지 않고 옷과 밥만 허비하니, 비록 출가하였다고 하나 무슨 덕이 있겠는가?</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>지눌| 권수정혜결사문</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>화엄학이 실천의 문제를 떠나 지나치게 관념화되어 있음을 비판하였다</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>화엄사상의 입장에서 법상종 세력을 흡수하여 성상융회 사상을 표방하였다</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>선을 체(體)로 삼고 교를 용(用)으로 삼아 선과 교의 합일점을 구하였다</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>중국 화엄종의 방계(傍系)인 이통현의 화엄사상에서 많은 영향을 받았다</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>중국 화엄종의 방계(傍系) 이통현의 화엄사상의 영향을 받은 대표적인 인물은 지눌이다. 이로써 지눌은 선과 교가 다르지 않음과 화엄에도 돈오사상이 있음을 깨달았다</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>『목우자수심결』을 지어 마음을 닦고자 하였다</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>스님은 항상 남악과 북악 종문(宗門)의 취지가 모순인 채 분명하지 않음을 탄식하고, 그것이 여러 갈래로 갈라짐을 막아 한길로 돌리고자 했다. …… 나라에서 왕륜사(王輪寺)에 선석(選席)을 베풀고 승과를 시행할 때 우리 스님의 의리(義理)의 길을 정통으로 삼고 나머지는 방계로 했으니, 모든 재주와 명망있는 무리들이 어찌 이 길을 따르지 않으랴</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>균여</t>
+        </is>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>그는 일찍이 중국에 유학하여 천태 지자대사의 탑에 예배하고 그 가르침을 전할 것을 서원하였고, 새로운 종파를 개창하였다. 또한 그는 많은 불교 전적을 송, 요에서 구하여 흥왕사에서 이름난 승려들을 불러 잘못되고 빠진 곳을 바로잡아 간행하였다. 저술로는 원종문류, 석원사림 등이 있다</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>그는 선종 2년 을축(1085) 4월에 불법을 구하기 위해 배를 타고 가서 백파(百派)를 도입하니, 대소(大小)·시종(始終)·원돈(圓頓) 등 5교가 각각 그 자리를 얻어 다시 제자리로 돌아갔다. 그런데 주나라에서 근원이 흘러 한나라에서 갈라졌으며, 진(晉)·위(魏)에서 넓어지고 수(隋)·당(唐)대에 넘쳐흘렀고, 송(宋)에서 물결쳐 해동에 깊이 고인 것이다</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>의천</t>
+        </is>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>선문 가운데도 원돈신해(圓頓信解)의 여실한 언교(言敎)가 황하의 모래알처럼 많다. 그러나 그것을 일러 사구(死句)라 하는 이유는, 사람을 지적인 이해에만 몰두하도록 하는 장애를 생겨나게 하기 때문이다</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>여러 사람이 내 말을 듣고 모두 그렇다 하며 말하길 “훗날 이 언약을 이루어 숲속에 은거하면서 동사(同社)를 맺을 수 있게 된다면 마땅히 그 이름을 정혜(定慧)라 하자.”라고 하였다</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>지눌</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>임진년(1232년) 여름 4월 8일 처음 보현도량(普賢道場)을 결성하고 법화삼매(法華三昧)를 수행하여, 극락정토에 왕생하기를 구하였는데, 모두 천태삼매의(天台三昧儀)를 그대로 따랐다. 오랫동안 법화참(法華懺)을 수행하고 전후에 권하여 발심시켜 이 경을 외우도록 하여 외운 자가 1000여 명이나 되었다</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>요세</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>명예와 이익을 버리고 산림에 은둔하여 항상 선정을 익히고 지혜를 고루하기에 힘쓰며, 예불과 독경을 하고 나아가서는 노동에도 힘을 쏟자</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>지눌| 정혜결사문</t>
+        </is>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>나는 옛날 공의 문하에 있었고 공은 지금 우리 수선사에 들어왔으니, 공은 불교의 유생이요, 나는 유교의 불자입니다. …(중략) … 유교와 불교는 다름이 없다고 보아야 하지 않겠습니까?</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>혜심| 유불일치설</t>
+        </is>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>불교 : 인물</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>조선 혁명군은 1929년 만주에서 조직된 독립군 부대이다. 양세봉이 중심이 되어 중국 의용군과 함께 흥경성 전투, 영릉가 전투 등에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>지청천이 이끄는 군대로, 항일 중국군과 함께 쌍성보 전투, 동경성 전투 등에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>양세봉이 이끄는 군대로, 영릉가 전투와 흥경성 전투에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>한국 독립군은 한국 독립당 산하의 독립군 부대이다. 지청천이 중심이 되어 중국 호로군과 함께 쌍성보 전투, 동경성 전투 등에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>중국 관내 최초의 한인 무장 부대는 조선 의용대이다</t>
+        </is>
+      </c>
+      <c r="B943" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>중국 관내 최초의 한인 무장 부대로, 중국 국민당 정부의 지원을 받았다</t>
+        </is>
+      </c>
+      <c r="B944" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>미 전략 사무국(OSS)과 협력하여 국내 진공 작전을 계획하였다</t>
+        </is>
+      </c>
+      <c r="B945" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>1940년 대한민국 임시 정부는 충칭에서 한국 광복군을 창설하였다. 한국 광복군은 미국 전략 정보처(OSS)의 지원을 받아 지청천과 이범석 등을 중심으로 국내 정진군을 편성ㆍ훈련하였으나 일제의 항복으로 무산되었다</t>
+        </is>
+      </c>
+      <c r="B946" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>㉠은/는 이에 제1차의 전쟁사를 세상에 공개하노니 이는 결코 과장의 의미에서 나온 것도 아니요, 또한 이것을 선전의 재료로 삼자는 바도 아니다. 다만, 우리의 진실된 마음을 피력하여 한국 삼천만 인민이 모든 굴욕을 받으며 분투해 온 간난신고를 읍소하여 세간의 인도주의자들의 공론을 구하고, 아울러 이로써 살얼음 위를 걷는 것 같은 위험에 처해 있는 중화민족에게 다소나마 참고와 도움이 된다면 다행일 뿐이다. ……(중략)…… 그러므로 우리 한국은 한국을 위하여 광복을 꾀하려고 하면 반드시 먼저 중국을 구해야 하고, 중국을 위하여 광복을 꾀함에도 한국은 또한 중국을 구해야 할 것이다. 이것이 바로 내가 입이 닳도록 애원하며 우리 한·중 양국 동지에게 다 같이 각성하여 전장에 목숨을 함께 바치자는 까닭이다</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>1932년 4월 한인 애국단의 윤봉길은 중국 상하이 훙커우 공원에서 열린 일본 국왕의 생일과 상하이 사변의 승리를 축하하는 기념식장에서 폭탄을 던져 일본군 장군과 여러 고위 관리를 처단하였다</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>윤봉길이 상하이 홍커우 공원에서 일왕 탄생 축하 행사 겸 전승 축하식장에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>한인 애국단의 이봉창은 1932년 1월 일본 도쿄에서 일본 국왕이 타고 가는 마차를 향해 수류탄을 던졌다. 이봉창의 의거는 성공을 거두지는 못하였지만 일제에 큰 충격을 주었다. 중국 신문이 이봉창의 의거 실패에 대해 아쉬워하는 기사를 보도하자, 일제는 이를 빌미로 중국 상하이를 침략하였다(상하이 사변)</t>
+        </is>
+      </c>
+      <c r="B950" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>이봉창은 도쿄에서 일왕 히로히토를 향해 수류탄을 던졌으나 성공하지 못하였다</t>
+        </is>
+      </c>
+      <c r="B951" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>1932년 한인 애국단의 유진만과 이덕주는 김구의 지시로 조선 총독 우가키 가즈시게를 비롯한 일본 요인 암살을 목적으로 국내로 파견되어 활동을 전개하다가 4월 7일 일본 경찰에 체포되었다</t>
+        </is>
+      </c>
+      <c r="B952" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>이덕주는 조선총독부 총독을 저격하고자 계획했으나 사전에 체포되어 실패하였다</t>
+        </is>
+      </c>
+      <c r="B953" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>상하이사변이 한창일 때 한인 애국단에서도 일본군에 타격을 입힐 방안을 강구하고 있었다. 1차로 일본군사령부가 황포강의 훙커우 부둣가에 정박 중인 일본군함 이즈모호에 설치되어 있다는 사실을 확인하고 이를 폭파하려고 하였으나 실패하였다</t>
+        </is>
+      </c>
+      <c r="B954" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>상하이사변 직후 일본 이즈모호를 폭파하기로 하였으나 실패하였다</t>
+        </is>
+      </c>
+      <c r="B955" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>김지섭은 의열단원이다. 그는 1924년에 도쿄 궁성 이중교(니주바시) 투탄 의거를 단행하였다</t>
+        </is>
+      </c>
+      <c r="B956" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>김지섭이 일왕의 궁성으로 들어가는 니주바시에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B957" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>1932년 4월 한인 애국단의 윤봉길은 중국 상하이 훙커우 공원에서 열린 일본 국왕의 생일과 상하이 사변의 승리를 축하하는 기념식장에서 폭탄을 던져 일본군 장군과 여러 고위 관리를 처단하였다</t>
+        </is>
+      </c>
+      <c r="B958" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>윤봉길이 상하이 홍커우 공원에서 일왕 탄생 축하 행사 겸 전승 축하식장에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B959" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>한인 애국단의 이봉창은 1932년 1월 일본 도쿄에서 일본 국왕이 타고 가는 마차를 향해 수류탄을 던졌다. 이봉창의 의거는 성공을 거두지는 못하였지만 일제에 큰 충격을 주었다. 중국 신문이 이봉창의 의거 실패에 대해 아쉬워하는 기사를 보도하자, 일제는 이를 빌미로 중국 상하이를 침략하였다(상하이 사변)</t>
+        </is>
+      </c>
+      <c r="B960" t="inlineStr">
+        <is>
+          <t>이봉창</t>
+        </is>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>이봉창은 도쿄에서 일왕 히로히토를 향해 수류탄을 던졌으나 성공하지 못하였다</t>
+        </is>
+      </c>
+      <c r="B961" t="inlineStr">
+        <is>
+          <t>이봉창</t>
+        </is>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>1932년 한인 애국단의 유진만과 이덕주는 김구의 지시로 조선 총독 우가키 가즈시게를 비롯한 일본 요인 암살을 목적으로 국내로 파견되어 활동을 전개하다가 4월 7일 일본 경찰에 체포되었다</t>
+        </is>
+      </c>
+      <c r="B962" t="inlineStr">
+        <is>
+          <t>이덕주</t>
+        </is>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>이덕주는 조선총독부 총독을 저격하고자 계획했으나 사전에 체포되어 실패하였다</t>
+        </is>
+      </c>
+      <c r="B963" t="inlineStr">
+        <is>
+          <t>이덕주</t>
+        </is>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>김지섭은 의열단원이다. 그는 1924년에 도쿄 궁성 이중교(니주바시) 투탄 의거를 단행하였다</t>
+        </is>
+      </c>
+      <c r="B964" t="inlineStr">
+        <is>
+          <t>김지섭</t>
+        </is>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>김지섭이 일왕의 궁성으로 들어가는 니주바시에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B965" t="inlineStr">
+        <is>
+          <t>김지섭</t>
+        </is>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>민중은 우리 혁명의 대본영이다. 폭력은 우리 혁명의 유일한 무기이다. 우리는 민중 속으로 가서 민중과 손을 맞잡아 끊임없는 폭력－암살, 파괴, 폭동으로써 강도 일본의 통치를 타도하고, 우리 생활에 불합리한 일체의 제도를 개조하여, 인류로써 인류를 압박하지 못하며, 사회로써 사회를 박탈하지 못하는 이상적 조선을 건설할지니라</t>
+        </is>
+      </c>
+      <c r="B966" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>의열단원 김상옥은 종로 경찰서에 투탄 후 일본군경과 총격전 끝에 자결하였다(1923)</t>
+        </is>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>김상옥을 보내서 종로 경찰서를 폭파하고자 하였다</t>
+        </is>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>의열단원 김상옥은 종로 경찰서에 투탄 후 일본군경과 총격전 끝에 자결하였다(1923)</t>
+        </is>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>김상옥</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>김상옥을 보내서 종로 경찰서를 폭파하고자 하였다</t>
+        </is>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>김상옥</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>노인 동맹단 소속 강우규는 새로 부임하는 사이토 총독에게 투탄했다</t>
+        </is>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>강우규</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>경성역에서 사이토 총독에게 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>노인 동맹단</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>노인 동맹단 소속 강우규는 새로 부임하는 사이토 총독에게 투탄했다</t>
+        </is>
+      </c>
+      <c r="B973" t="inlineStr">
+        <is>
+          <t>노인 동맹단</t>
+        </is>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>봉오동 전투에서 패한 일제는 만주 지역 독립군을 전멸하려 하였다. 일제는 훈춘 사건을 구실로 만주 지역에 대군을 동원하여 독립군을 공격하였다. 북간도 지역에 있던 독립군 부대는 일본군의 계획을 미리 알고 근거지를 떠나 허룽현과 안투현 일대로 이동하기 시작했다. 김좌진과 홍범도가 이끄는 독립군 연합 부대는 추격해 온 일본군을 청산리 일대로 유인하여 큰 승리를 거두었다(청산리 대첩, 1920. 10.)</t>
+        </is>
+      </c>
+      <c r="B974" t="inlineStr">
+        <is>
+          <t>봉오동 전투</t>
+        </is>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>전투</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>양세봉이 이끈 조선 혁명군은 중국 의용군과 연합하여 영릉가 전투와 흥경성 전투 등에서 일본군을 크게 물리쳤다</t>
+        </is>
+      </c>
+      <c r="B975" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>지청천이 이끈 한국 독립군은 중국 호로군과 연합하여 쌍성보(1932)와 대전자령 전투(1933) 등에서 일본군을 크게 물리쳤다</t>
+        </is>
+      </c>
+      <c r="B976" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>6월 30일 오후 1시경 일본군의 전초 부대가 지나간 뒤, 화물자동차를 앞세우고 본대가 대전자령으로 들어오기 시작했다. (중략) 한국 독립군은 사격과 함께 바위를 굴려 일본군을 살상하고 자동차와 우마차를 파괴해 적을 완전히 고립시켰다. (중략) 4 ~ 5시간에 걸쳐 치열하게 전개되었는데, 일본군은 130여 명 이상이 살상되었고 일부 부대가 빠져나가는 데 그쳤다</t>
+        </is>
+      </c>
+      <c r="B977" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>6월 30일 오후 1시경 일본군의 전초 부대가 지나간 뒤, 화물자동차를 앞세우고 본대가 대전자령으로 들어오기 시작했다. (중략) 한국 독립군은 사격과 함께 바위를 굴려 일본군을 살상하고 자동차와 우마차를 파괴해 적을 완전히 고립시켰다. (중략) 4 ~ 5시간에 걸쳐 치열하게 전개되었는데, 일본군은 130여 명 이상이 살상되었고 일부 부대가 빠져나가는 데 그쳤다</t>
+        </is>
+      </c>
+      <c r="B978" t="inlineStr">
+        <is>
+          <t>대전자령 전투</t>
+        </is>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>전투</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>1921년 의열단원 김익상은 일제 식민 통치의 중심기관인 조선총독부에 잠입하여 2층 비서과와 회계과장실에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>1921년 의열단원 김익상은 일제 식민 통치의 중심기관인 조선총독부에 잠입하여 2층 비서과와 회계과장실에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>김익상</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>일제 식민 지배의 중심기관인 조선총독부에 폭탄을 던졌다</t>
+        </is>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>1932년 한인 애국단의 윤봉길은 상하이 훙커우 공원에서 열린 일왕 생일 겸 전승 축하식장에 폭탄을 던져 다수의 일본 고관들을 폭살하였다</t>
+        </is>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>1932년 한인 애국단의 윤봉길은 상하이 훙커우 공원에서 열린 일왕 생일 겸 전승 축하식장에 폭탄을 던져 다수의 일본 고관들을 폭살하였다</t>
+        </is>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>상하이 훙커우 공원에서 열린 일본군의 상하이 점령 축하 기념식장에 폭탄을 던져 일본군을 살상하였다</t>
+        </is>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>상하이 훙커우 공원에서 열린 일본군의 상하이 점령 축하 기념식장에 폭탄을 던져 일본군을 살상하였다</t>
+        </is>
+      </c>
+      <c r="B985" t="inlineStr">
+        <is>
+          <t>윤봉길</t>
+        </is>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>1926년 의열단원 나석주는 조선식산은행에 폭탄을 투척하였으나 불발되었고, 곧이어 동양척식주식회사를 공격하여 여러 명의 일본인을 사살하였다</t>
+        </is>
+      </c>
+      <c r="B986" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>1926년 의열단원 나석주는 조선식산은행에 폭탄을 투척하였으나 불발되었고, 곧이어 동양척식주식회사를 공격하여 여러 명의 일본인을 사살하였다</t>
+        </is>
+      </c>
+      <c r="B987" t="inlineStr">
+        <is>
+          <t>나석주</t>
+        </is>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>동양척식주식회사에 들어가 그 간부를 사살하고 경찰과 시가전을 벌이기도 하였다</t>
+        </is>
+      </c>
+      <c r="B988" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>동양척식주식회사에 들어가 그 간부를 사살하고 경찰과 시가전을 벌이기도 하였다</t>
+        </is>
+      </c>
+      <c r="B989" t="inlineStr">
+        <is>
+          <t>나석주</t>
+        </is>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>독립지사들에게 잔인한 고문을 일삼던 종로경찰서에 폭탄을 던져 큰 피해를 주었다</t>
+        </is>
+      </c>
+      <c r="B990" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>독립지사들에게 잔인한 고문을 일삼던 종로경찰서에 폭탄을 던져 큰 피해를 주었다</t>
+        </is>
+      </c>
+      <c r="B991" t="inlineStr">
+        <is>
+          <t>김상옥</t>
+        </is>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>1914년 미주 지역에서 박용만을 중심으로 대조선 국민군단이 조직되었다</t>
+        </is>
+      </c>
+      <c r="B992" t="inlineStr">
+        <is>
+          <t>대조선 국민군단</t>
+        </is>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>대조선 국민군단은 1914년 미주 지역에서 박용만을 중심으로 조직되었다</t>
+        </is>
+      </c>
+      <c r="B993" t="inlineStr">
+        <is>
+          <t>대조선 국민군단</t>
+        </is>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>한국 광복군이 설립된 것은 충칭으로 대한민국 임시 정부가 옮겨 간 이후인 1940년이다</t>
+        </is>
+      </c>
+      <c r="B994" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>본단(本團)은 일찍부터 실행을 중하게 여기고 발언을 피하여 왔다. 그런 까닭으로 이번 최흥식, 유상근 두 의사의 다롄[大蓮] 사건에 대해서도 일체 침묵을 지켰으나, 놈들 간악한 적은 여러 가지로 요언(謠言)을 만들어내고, 또 다롄 폭탄 사건은 국제 연맹 조사 단원을 암살하려는 음모라고 선전하고 있으나 이는 우리가 승인할 수 없는 바이다. …… 본단은 왜적 이외에는 어느 나라 사람이나 다 같이 친우로 대하려 하며 절대로 해치지 않으니, 이것은 훙커우 공원 사건이 증명하고 있는 바이다</t>
+        </is>
+      </c>
+      <c r="B995" t="inlineStr">
+        <is>
+          <t>한인 애국단</t>
+        </is>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>김원봉이 창당한 조선민족혁명당(1935)이 이끄는 조선 의용대(1938)의 일부는 화북 지대로 이동하였으며, 김원봉과 나머지 일부는 1942년 한국광복군에 합류하였다</t>
+        </is>
+      </c>
+      <c r="B996" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>조선민족혁명당이 이끄는 조선 의용대의 일부가 한국광복군에 합류하였다</t>
+        </is>
+      </c>
+      <c r="B997" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>1930년대 중국 호로군과 북만주(북간도)의 쌍성보·사도하자·대전자령 등지에서 일본군을 격파한 것은 '지청천의 한국 독립군'이다</t>
+        </is>
+      </c>
+      <c r="B998" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>북만주의 쌍성보 전투 등에서 일본군을 격퇴하였다</t>
+        </is>
+      </c>
+      <c r="B999" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>의열단은 광저우의 중국 국민당이 설립한 황포 군관 학교에 입학하여 군사 교육을 받았다</t>
+        </is>
+      </c>
+      <c r="B1000" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>단원들이 황포 군관 학교에 입학하여 군사 교육을 받았다</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>의열단원 나석주는 1926년 동양척식주식회사와 식산은행에 폭탄을 투척하였다</t>
+        </is>
+      </c>
+      <c r="B1002" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>의열단은 1926년 이후 의열 운동에서 무장 투쟁으로 노선을 전환하였으며, 이에 따라 혁명 투사 및 독립운동 지도자 양성을 위해 조선 혁명 간부 학교를 설립하였다</t>
+        </is>
+      </c>
+      <c r="B1003" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>혁명 투사·독립 운동 지도자를 양성하기 위한 조선 혁명 간부 학교를 설립·운영 하였다</t>
+        </is>
+      </c>
+      <c r="B1004" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>의열단은 1919년 3·1 운동 이후 만주 길림에서 김원봉, 윤세주 등이 결성하였다</t>
+        </is>
+      </c>
+      <c r="B1005" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>3·1 운동 이후 만주 길림에서 김원봉, 윤세주 등이 조직한 단체이다</t>
+        </is>
+      </c>
+      <c r="B1006" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>독립 의군부는 조선 총독부와 일본 정부에 국권 반환 요구서를 제출하였다</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>독립 의군부</t>
+        </is>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>㉠은 일본 정부와 조선 총독부에 한국 침략의 부당성을 밝히고 국권 반환을 요구하는 서신을 보냈다</t>
+        </is>
+      </c>
+      <c r="B1008" t="inlineStr">
+        <is>
+          <t>독립 의군부</t>
+        </is>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>1940년 만주와 시베리아 지역에서 활동하고 있던 신흥 무관 학교 출신의 독립군 간부와 중국 대륙에 흩어져 있던 수많은 애국 청년을 모아 창설하였다</t>
+        </is>
+      </c>
+      <c r="B1009" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>의병장으로 활동하였던 임병찬이 1912년 고종 황제의 비밀 지령을 받아 의병들을 규합하여 결성하였다</t>
+        </is>
+      </c>
+      <c r="B1010" t="inlineStr">
+        <is>
+          <t>독립 의군부</t>
+        </is>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>1. 천하의 정의의 사(事)를 맹렬(猛烈)히 실행하기로 함
+2. 조선의 독립과 세계의 평등을 위하여 신명(身命)을 희생하기로 함
+3. 충의의 기백과 희생의 정신이 확고한 자라야 단원이 된다
+… (중략) …
+9. 일(一)이 구(九)를 위하여 구가 일을 위하여 헌신함
+10. 단의를 배반한 자는 척살한다</t>
+        </is>
+      </c>
+      <c r="B1011" t="inlineStr">
+        <is>
+          <t>의열단| 공약 10조</t>
+        </is>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>조선 혁명군은 1929년 남만주에서 조직되었다</t>
+        </is>
+      </c>
+      <c r="B1012" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>한국 광복군은 영국과 군사 협정을 맺고 인도와 미얀마 전선에서 영국군과 공동 작전을 펼쳤다</t>
+        </is>
+      </c>
+      <c r="B1013" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>인도, 미얀마 전선에서 영국군과 공동 작전을 펼쳤다</t>
+        </is>
+      </c>
+      <c r="B1014" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>중국 관내에서 조직된 최초의 한인 부대는 1938년 창설된 조선 의용대이다</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>중국 관내에서 조직된 최초 한국인 군사 조직이었다</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr">
+        <is>
+          <t>조선 의용대</t>
+        </is>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>만주에서 중국 의용군과 한중 연합 작전을 수행한 것은 양세봉의 조선 혁명군이다</t>
+        </is>
+      </c>
+      <c r="B1017" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>만주에서 중국 의용군과 연합 작전을 수행하였다</t>
+        </is>
+      </c>
+      <c r="B1018" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>중국 공산군(팔로군)과 함께 화북에서 항일전을 벌인 것은 조선 의용군이다</t>
+        </is>
+      </c>
+      <c r="B1019" t="inlineStr">
+        <is>
+          <t>조선 의용군</t>
+        </is>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>중국 공산군과 함께 화북에서 항일전을 벌였다</t>
+        </is>
+      </c>
+      <c r="B1020" t="inlineStr">
+        <is>
+          <t>조선 의용군</t>
+        </is>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>이번 연합군과의 작전에 모든 운명을 거는 듯하였다. 주석(主席)과 우리 부대의 총사령관이 계속 의논하는 것을 옆에서 들었기 때문에 더욱 일의 중대성을 절감하였다. 드디어 시기가 온 것이다! 독립 투쟁 수십 년에 조국을 탈환하는 결정적 시기가 온 것이다. 이때의 긴장감은 내가 일본 군대를 탈출할 때와는 다른 긴장감이었다. 목적은 같으나 그때는 막연한 미지의 세계에 뛰어드는 것이었지만 이번에는 분명히 조국으로 가는 것이 아닌가?</t>
+        </is>
+      </c>
+      <c r="B1021" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>이 단체의 중심 인물은 안창호, 양기탁, 신채호 등이다
+서북 지방의 기독교인들이 다수 참가한 항일 비밀 결사 조직이다
+공화 정체의 근대 국가 수립을 목적으로 했다
+일제가 날조한 105인 사건으로 국내 조직이 해체되었다</t>
+        </is>
+      </c>
+      <c r="B1022" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>신민회는 무장 독립 투쟁을 위한 독립 운동 기지를 건설 추진하였으며, 이에 이회영 일가의 헌신으로 만주의 삼원보에 독립 운동 기지를 건설하였다</t>
+        </is>
+      </c>
+      <c r="B1023" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>이회영 형제의 헌신으로 남만주에 독립운동기지를 건설하였다</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>신민회는 민족 의식과 독립사상을 고취시키기 위한 교육 활동을 펼쳤다. 그리하여 평양에 대성학교 정주에 오산학교를 세워 실력 양성을 추구하였다</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>대성학교와 오산학교를 세워 민족 교육을 실시하였다</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>신민회는 민족 산업을 육성하기 위해 평양에 자기회사, 대구와 평양 ‧ 서울에 태극 서관을 운영하였다</t>
+        </is>
+      </c>
+      <c r="B1027" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>자기회사·태극서관을 설립하여 민족 산업 육성에 노력하였다</t>
+        </is>
+      </c>
+      <c r="B1028" t="inlineStr">
+        <is>
+          <t>신민회</t>
+        </is>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>한국 독립군은 중국 호로군과 연합하여 쌍성보 전투(1932), 대전자령 전투(1933) 등에서 일·만 연합군을 격파하였다</t>
+        </is>
+      </c>
+      <c r="B1029" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>혁신 의회 산하 한국 독립군은 지청천을 총사령으로 삼아 활동하였다</t>
+        </is>
+      </c>
+      <c r="B1030" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>조선 혁명군은 대도회(大刀會)가 이끄는 중국 의용군과 연합하여 활발한 국내 진입 작전을 전개하였으며, 영릉가 전투(1932)·흥경성 전투(1933)에서 일본군을 상대로 대승을 거두었다</t>
+        </is>
+      </c>
+      <c r="B1031" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>1929년 남만주에서는 양세봉을 중심으로 국민부가 조직되었고, 중심 조직으로 조선혁명당의 예하부대로서 조선 혁명군이 조직되었다</t>
+        </is>
+      </c>
+      <c r="B1032" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>1932년 3월 12일, ( 가 )과(와) 중국 의용군의 한·중 연합군은 영릉가 뒷산에 대기하고 있다가 일본군을 요격하여 수 시간의 격전을 벌였다. 적은 마침내 30여 명의 사상자를 내고 일몰과 함께 패퇴하고 말았다</t>
+        </is>
+      </c>
+      <c r="B1033" t="inlineStr">
+        <is>
+          <t>조선 혁명군</t>
+        </is>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>두만강과 압록강 부근에서 일본군과 교전하였고 때로는 국경을 넘어와 국내진공작전을 펴기도 하였다</t>
+        </is>
+      </c>
+      <c r="B1034" t="inlineStr">
+        <is>
+          <t>대한 독립군</t>
+        </is>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>1919년 만주에서 홍범도를 중심으로 조직한 대한 독립군은 국내진공작전을 펴기도 하였다</t>
+        </is>
+      </c>
+      <c r="B1035" t="inlineStr">
+        <is>
+          <t>대한 독립군</t>
+        </is>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>의열단은 1926년 20개조 강령을 제정하여 경제제도 소멸, 대지주 토지 몰수 등의 내용이 포함되었으며 계급타파, 평균지권 등의 의열단이 지향하는 바가 반영된 것을 볼 수 있다</t>
+        </is>
+      </c>
+      <c r="B1036" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>1926년 계급타파와 토지평균 등을 지도이념으로 하는 20개조의 강령을 발표하고 민족협동운동에 참여할 것을 선언했다</t>
+        </is>
+      </c>
+      <c r="B1037" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>한국 독립군이 한·중 연합작전으로 동경성에서 승리하였다</t>
+        </is>
+      </c>
+      <c r="B1038" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>1930년대 만주사변으로 인해 미쓰야 협정이 결렬되고, 한중 연합 작전이 시작되었으며 한국 독립군과 중국호로군은 동경성 전투(1933)에서 승리하였다</t>
+        </is>
+      </c>
+      <c r="B1039" t="inlineStr">
+        <is>
+          <t>한국 독립군</t>
+        </is>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>민족 유일당운동의 일환으로 1929년 4월 만주의 독립운동단체인 정의부·신민부·참의부의 대표가 모여 국민부를 조직하였다</t>
+        </is>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>국민부</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>대종교 계통 인사들이 신민부를 결성하였다</t>
+        </is>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>신민부</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>자유시 참변 이후 소련에서 탈출한 김좌진을 중심으로 대종교 인사들은 북만주 일대에 신민부(1925)를 결성하였다</t>
+        </is>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>신민부</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>의열단은 임시정부 요인과 제휴하여 투탄 계획을 추진하기도 하였다</t>
+        </is>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>임시정부 요인과 제휴한 투탄 계획을 추진하였다</t>
+        </is>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>제국의회가 마침 휴회 중이라는 기사가 떠있는 것을 본 의열단 소속 김지섭은 황궁에 폭탄을 투척하였다</t>
+        </is>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>대한애국청년단원 강윤국·조문기·유만수 등은 경성 부민관(일제강점기 조선총독부의 관립극장)에 폭탄을 투척하였다</t>
+        </is>
+      </c>
+      <c r="B1046" t="inlineStr">
+        <is>
+          <t>대한애국청년단원</t>
+        </is>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>의열단은 개별투쟁의 한계를 인식하고 대중적 투쟁을 전개하기 위해서 중국 난징에서 결성된 민족혁명당 창당에 가담하였다</t>
+        </is>
+      </c>
+      <c r="B1047" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>대한 민국 임시 정부에서는 만주 지역의 독립군과 각처에 산재해 있던 무장투쟁 세력을 모아 충칭에서 이 단체를 창설하였다</t>
+        </is>
+      </c>
+      <c r="B1048" t="inlineStr">
+        <is>
+          <t>한국 광복군</t>
+        </is>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>군대</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>박재혁이 부산 경찰서를 공격하였다</t>
+        </is>
+      </c>
+      <c r="B1049" t="inlineStr">
+        <is>
+          <t>박재혁</t>
+        </is>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>박재혁이 부산 경찰서를 공격하였다</t>
+        </is>
+      </c>
+      <c r="B1050" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>1920년 의열단 소속 박재혁은 부산 경찰서에 폭탄을 던져 공격하였다</t>
+        </is>
+      </c>
+      <c r="B1051" t="inlineStr">
+        <is>
+          <t>박재혁</t>
+        </is>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>인물</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>1920년 의열단 소속 박재혁은 부산 경찰서에 폭탄을 던져 공격하였다</t>
+        </is>
+      </c>
+      <c r="B1052" t="inlineStr">
+        <is>
+          <t>의열단</t>
+        </is>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>통의부 조직(1922년): 남만주 일대의 8개의 독립군 단체가 통합하여 대한 통의부가 조직되었다</t>
+        </is>
+      </c>
+      <c r="B1053" t="inlineStr">
+        <is>
+          <t>통의부</t>
+        </is>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>정의부 조직(1924년): 참의부에 참여하지 않은 세력들이 통합하여 성립된 것으로 남만주 지역을 관할 구역으로 하였으며 3부 중 규모가 가장 컸다</t>
+        </is>
+      </c>
+      <c r="B1054" t="inlineStr">
+        <is>
+          <t>정의부</t>
+        </is>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>단체</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>중세사를 설정하여 식민 사관의 정체성론을 비판하였다</t>
+        </is>
+      </c>
+      <c r="B1055" t="inlineStr">
+        <is>
+          <t>백남운</t>
+        </is>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>인물 : 근대</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>백남운은 마르크스주의 5단계 사회 발전론을 적용하여 중세사를 설정하여 식민 사관의 정체성론을 비판하였다</t>
+        </is>
+      </c>
+      <c r="B1056" t="inlineStr">
+        <is>
+          <t>백남운</t>
+        </is>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>인물 : 근대</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
         <v>0</v>
       </c>
     </row>

--- a/학습자료/단답형/한국사 파이널.xlsx
+++ b/학습자료/단답형/한국사 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1056"/>
+  <dimension ref="A1:D1097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -2974,7 +2974,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3274,7 +3274,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
@@ -4714,7 +4714,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5114,7 +5114,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5134,7 +5134,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -7820,7 +7820,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="385">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -8541,7 +8541,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
@@ -9761,7 +9761,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -11001,7 +11001,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
@@ -12041,7 +12041,7 @@
         </is>
       </c>
       <c r="D580" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="581">
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="D604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -12841,7 +12841,7 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="D629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="D636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="D700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="D750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -16622,7 +16622,7 @@
         </is>
       </c>
       <c r="D809" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -16662,7 +16662,7 @@
         </is>
       </c>
       <c r="D811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812">
@@ -18642,7 +18642,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">
@@ -19242,7 +19242,7 @@
         </is>
       </c>
       <c r="D940" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941">
@@ -21210,7 +21210,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1049">
@@ -21570,6 +21570,826 @@
         </is>
       </c>
       <c r="D1056" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>무신정변 이후 의종 복위 시도</t>
+        </is>
+      </c>
+      <c r="B1057" t="inlineStr">
+        <is>
+          <t>김보당의 난</t>
+        </is>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>서경 유수가 지방군과 농민을 이끌고 무신정권에 항거, 농민 전쟁 성격</t>
+        </is>
+      </c>
+      <c r="B1058" t="inlineStr">
+        <is>
+          <t>조위총의 난</t>
+        </is>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>귀법사 등 문신 귀족과 연결된 승려의 난</t>
+        </is>
+      </c>
+      <c r="B1059" t="inlineStr">
+        <is>
+          <t>교종 계통 승려의 난</t>
+        </is>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>정중부 집권기, 공주 명학소에서 발생, 이후 명학소는 충순현으로 승격</t>
+        </is>
+      </c>
+      <c r="B1060" t="inlineStr">
+        <is>
+          <t>망이, 망소이의 난</t>
+        </is>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>경대승 집권기</t>
+        </is>
+      </c>
+      <c r="B1061" t="inlineStr">
+        <is>
+          <t>전주 관노의 난</t>
+        </is>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>이의민 집권기, 신라 부흥 운동</t>
+        </is>
+      </c>
+      <c r="B1062" t="inlineStr">
+        <is>
+          <t>김사미, 효심의 난</t>
+        </is>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>최충헌 집권기, 신분 차별에 항거</t>
+        </is>
+      </c>
+      <c r="B1063" t="inlineStr">
+        <is>
+          <t>만적의 난</t>
+        </is>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>최충헌 집권기, 합주에서 지방관 수탈에 항거</t>
+        </is>
+      </c>
+      <c r="B1064" t="inlineStr">
+        <is>
+          <t>광명, 계발의 난</t>
+        </is>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>최충헌 집권기, 경주에서 신라 부흥 표방</t>
+        </is>
+      </c>
+      <c r="B1065" t="inlineStr">
+        <is>
+          <t>이비, 패좌의 난</t>
+        </is>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>최충헌 집권기, 서경에서 고구려 부흥 명분</t>
+        </is>
+      </c>
+      <c r="B1066" t="inlineStr">
+        <is>
+          <t>최광수의 난</t>
+        </is>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>최우 집권기, 백제 부흥</t>
+        </is>
+      </c>
+      <c r="B1067" t="inlineStr">
+        <is>
+          <t>이연년 형제의 난</t>
+        </is>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>무신정권 반란 민란</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>서북민의 민란</t>
+        </is>
+      </c>
+      <c r="B1068" t="inlineStr">
+        <is>
+          <t>정중부 집권기| 1172</t>
+        </is>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>김보당의 난</t>
+        </is>
+      </c>
+      <c r="B1069" t="inlineStr">
+        <is>
+          <t>정중부 집권기| 1173</t>
+        </is>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>조위총의 난</t>
+        </is>
+      </c>
+      <c r="B1070" t="inlineStr">
+        <is>
+          <t>정중부 집권기| 1174</t>
+        </is>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>망이 망소이의 난</t>
+        </is>
+      </c>
+      <c r="B1071" t="inlineStr">
+        <is>
+          <t>정중부 집권기| 1176</t>
+        </is>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>도방 설치</t>
+        </is>
+      </c>
+      <c r="B1072" t="inlineStr">
+        <is>
+          <t>경대승 집권기</t>
+        </is>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>전주 군인 및 관노의 난</t>
+        </is>
+      </c>
+      <c r="B1073" t="inlineStr">
+        <is>
+          <t>경대승 집권기| 1182</t>
+        </is>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>김사미, 효심의 난</t>
+        </is>
+      </c>
+      <c r="B1074" t="inlineStr">
+        <is>
+          <t>이의민 집권기</t>
+        </is>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>무신정권 초기</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>명종 폐위, 신종 옹립</t>
+        </is>
+      </c>
+      <c r="B1075" t="inlineStr">
+        <is>
+          <t>최충헌 집권기</t>
+        </is>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>교정 도감 설치</t>
+        </is>
+      </c>
+      <c r="B1076" t="inlineStr">
+        <is>
+          <t>최충헌 집권기| 최씨 정권 최고 권력 기구</t>
+        </is>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>봉사 10조</t>
+        </is>
+      </c>
+      <c r="B1077" t="inlineStr">
+        <is>
+          <t>최충헌 집권기</t>
+        </is>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>도방 부활</t>
+        </is>
+      </c>
+      <c r="B1078" t="inlineStr">
+        <is>
+          <t>최충헌 집권기</t>
+        </is>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>만적의 난</t>
+        </is>
+      </c>
+      <c r="B1079" t="inlineStr">
+        <is>
+          <t>최충헌 집권기| 1198, 왕후 장상의 씨가 따로 있냐…</t>
+        </is>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>정방 설치</t>
+        </is>
+      </c>
+      <c r="B1080" t="inlineStr">
+        <is>
+          <t>최우 집권기| 사저 인사 기구</t>
+        </is>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>서방 설치</t>
+        </is>
+      </c>
+      <c r="B1081" t="inlineStr">
+        <is>
+          <t>최우 집권기| 문신 숙위, 고문 기구</t>
+        </is>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>도방 확대</t>
+        </is>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>최우 집권기| 무신 숙위, 내도방, 외도방</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>삼별초 설치</t>
+        </is>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>최우 집권기| 야별초 + 신의군</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>대몽항쟁 시작</t>
+        </is>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>최우 집권기| 1차 침입 1231년, 최우 집권기 1219년~1249년</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>강동의 역</t>
+        </is>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>최충헌 집권기| 몽골 사신 저고여 피살</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>몽골 1차 침입</t>
+        </is>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>최우 집권기| 1231, 박서 귀주성 전투</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>강화도 천도</t>
+        </is>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>최우 집권기| 1232</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>몽골 2차 침입</t>
+        </is>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>최우 집권기| 1232, 처인성(용인) 전투 김윤후 살리타 사살, 부인사 초조대장경 및 속장경 소실, 재조대장경 간행 시작</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>몽골 3차 침입</t>
+        </is>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>최우 집권기| 황룡사 9층 목탑 소실</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>무신정권 최씨 집권기</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>쌍성총관부 설치</t>
+        </is>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>김준 집권기| 1258</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>무신정권 후기</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>동녕부 설치</t>
+        </is>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>임연, 임유무 집권기| 1270</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>무신정권 후기</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>개경환도</t>
+        </is>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>원종| 1270</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>무신정권 후기</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>삼별초 항쟁</t>
+        </is>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>원종| 1270~1273</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>무신정권 후기</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>탐라 총관부 설치</t>
+        </is>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>원종| 1273</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>무신정권 후기</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>승화후 온</t>
+        </is>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>강화도</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>무신정권 삼별초 항쟁</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>배중손, 용장산성</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>진도</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>무신정권 삼별초 항쟁</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>김통정</t>
+        </is>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>제주도</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>무신정권 삼별초 항쟁</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
         <v>0</v>
       </c>
     </row>
